--- a/mortos_sobreviventes.xlsx
+++ b/mortos_sobreviventes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.Code\Project_Noire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C1BC444-7DB6-4885-B2BC-8FE1BB29A5BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E007B4A-11FF-4E29-9CFC-F54614CA228C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E12CF58-BFC4-46C9-B198-1A61BC032E47}"/>
+    <workbookView xWindow="28680" yWindow="3210" windowWidth="17520" windowHeight="12480" xr2:uid="{8E12CF58-BFC4-46C9-B198-1A61BC032E47}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
